--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\공부\UiPath\RPA04_의약품안전나라_박건후\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCNI\Desktop\공부\UiPath\RPA04_의약품안전나라_박건후\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="74">
   <si>
     <t>Name</t>
   </si>
@@ -177,10 +177,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>결과파일</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>test</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -190,14 +186,6 @@
   </si>
   <si>
     <t>메일제목</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>메일본문</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Data\Output\의약품_행정처분_조회내역_{0}.xlsx</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -301,6 +289,48 @@
 th {
      background-color: gray;
      }</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>결과파일</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>결과폴더</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Data\Output\{0}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>\의약품_행정처분_조회내역_{0}.xlsx</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>메일본문_성공</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>메일본문_실패</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;html&gt;
+  &lt;head&gt;
+  &lt;/head&gt;
+  &lt;body&gt;
+    &lt;p&gt;
+      안녕하세요.
+      &lt;br&gt;
+      &lt;br&gt;
+      작업지시사항 미하달로 작업이 수행되지 않았음을 알려드립니다.
+      &lt;br&gt;
+      &lt;br&gt;
+      감사합니다.
+    &lt;/p&gt;
+  &lt;/body&gt;
+&lt;/html&gt;</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -785,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z22"/>
+  <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="18" customHeight="1"/>
@@ -836,25 +866,25 @@
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1">
       <c r="A3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1">
@@ -869,127 +899,144 @@
         <v>48</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:26" ht="18" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:26" ht="18" customHeight="1">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:26" ht="18" customHeight="1">
+      <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:26" ht="18" customHeight="1">
-      <c r="A9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="7"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:26" ht="18" customHeight="1">
       <c r="A10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:26" ht="18" customHeight="1">
+      <c r="A11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="18" customHeight="1">
-      <c r="A11" s="6" t="s">
+    <row r="12" spans="1:26" ht="18" customHeight="1">
+      <c r="A12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:26" ht="18" customHeight="1">
-      <c r="A12" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>64</v>
-      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:26" ht="18" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>63</v>
+      <c r="B13" s="11" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="18" customHeight="1">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="18" customHeight="1">
+      <c r="A15" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:26" ht="18" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:26" ht="18" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="396">
+        <v>49</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="396">
+      <c r="A19" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="198">
+      <c r="A20" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="198">
-      <c r="A19" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="18" customHeight="1">
-      <c r="B22" s="7"/>
+    <row r="21" spans="1:3" ht="247.5">
+      <c r="A21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="18" customHeight="1">
+      <c r="B23" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1"/>
-    <hyperlink ref="B12" r:id="rId2"/>
+    <hyperlink ref="B16" r:id="rId1"/>
+    <hyperlink ref="B13" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
   <si>
     <t>Name</t>
   </si>
@@ -333,12 +333,22 @@
 &lt;/html&gt;</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>OrchestratorQueueName</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OrchestratorQueueFolder</t>
+  </si>
+  <si>
+    <t>의약품안전나라_업체URL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -428,6 +438,18 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF464E55"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -467,7 +489,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -498,6 +520,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - 강조색1" xfId="2" builtinId="30"/>
@@ -815,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z23"/>
+  <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="18" customHeight="1"/>
@@ -872,171 +897,185 @@
       <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="18" customHeight="1">
+      <c r="A4" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="12"/>
+    </row>
+    <row r="5" spans="1:26" ht="18" customHeight="1">
+      <c r="A5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B5" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" ht="18" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="18" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:26" ht="18" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="7"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="18" customHeight="1">
-      <c r="A7" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="7"/>
+      <c r="A7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:26" ht="18" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:26" ht="18" customHeight="1">
-      <c r="A9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="A9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:26" ht="18" customHeight="1">
       <c r="A10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:26" ht="18" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:26" ht="18" customHeight="1">
+      <c r="A12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:26" ht="18" customHeight="1">
-      <c r="A11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="18" customHeight="1">
-      <c r="A12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:26" ht="18" customHeight="1">
       <c r="A13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="18" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:26" ht="18" customHeight="1">
+      <c r="A15" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B15" s="11" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" ht="18" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="18" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:26" ht="18" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>44</v>
+        <v>59</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" customHeight="1">
-      <c r="A17" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>50</v>
-      </c>
+      <c r="A17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" ht="18" customHeight="1">
       <c r="A18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18" customHeight="1">
+      <c r="A20" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="396">
-      <c r="A19" s="5" t="s">
+    <row r="21" spans="1:3" ht="396">
+      <c r="A21" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B21" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C21" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="198">
-      <c r="A20" s="5" t="s">
+    <row r="22" spans="1:3" ht="198">
+      <c r="A22" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B22" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="247.5">
-      <c r="A21" s="5" t="s">
+    <row r="23" spans="1:3" ht="247.5">
+      <c r="A23" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B23" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="18" customHeight="1">
-      <c r="B23" s="7"/>
+    <row r="25" spans="1:3" ht="18" customHeight="1">
+      <c r="B25" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <hyperlinks>
-    <hyperlink ref="B16" r:id="rId1"/>
-    <hyperlink ref="B13" r:id="rId2"/>
+    <hyperlink ref="B18" r:id="rId1"/>
+    <hyperlink ref="B15" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
